--- a/medicine/Psychotrope/BenRiach/BenRiach.xlsx
+++ b/medicine/Psychotrope/BenRiach/BenRiach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 BenRiach est une distillerie de whisky écossaise localisée dans le Speyside à Elgin, Moray.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie BenRiach a été fondée en 1897 par la famille Grant juste à côté de la distillerie Longmorn. Pour cette raison elle a longtemps été appelée Longmorn 2.
 En  1900, à la suite de la crise du whisky due à la chute de l’entreprise Pattison, BenRiach est mise en sommeil. Elle connaît alors une très longue éclipse et ne reprend son activité qu’en 1965. Pendant toutes ses années, le site industriel ne resta pas inactif. La malterie continua à être utilisée pour l’approvisionnement des distilleries environnantes.
@@ -554,8 +568,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Versions non tourbées
-BenRiach Heart of Speyside 40°
+          <t>Versions non tourbées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BenRiach Heart of Speyside 40°
 BenRiach 12ans 43°
 BenRiach 15 ans Aged Tawny Port finish 46°
 BenRiach 15 ans Jamaican Dark rum Finish 46°
@@ -568,9 +587,43 @@
 BenRiach 22 ans 1984 port finish 54.2°
 BenRiach 25 ans 50°
 BenRiach 29 ans 1978 Moscatel finish 52.2°
-BenRiach 29 ans 1978 Tokaji wood finish 52.5°
-Versions tourbées
-BenRiach 10 ans Curiositas 46°
+BenRiach 29 ans 1978 Tokaji wood finish 52.5°</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BenRiach</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/BenRiach</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Embouteillages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Versions tourbées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BenRiach 10 ans Curiositas 46°
 BenRiach 12ans Jamaican Dark rum Finish 46°
 BenRiach 12ans Churchill Tawny port Finish 46°
 BenRiach 13ans Maderensis fumosus Madeira finish Finish 46°
